--- a/src/main/resources/157-black-shop/black-shop-portal-web_structure.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-portal-web_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
   <si>
     <t>类名</t>
   </si>
@@ -55,10 +55,10 @@
     <t>void</t>
   </si>
   <si>
-    <t>setCookie(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>getCookieValue(javax.servlet.http.HttpServletRequest)</t>
+    <t>setCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getCookieValue(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>java.lang.String</t>
@@ -73,7 +73,16 @@
     <t>private</t>
   </si>
   <si>
-    <t>doSetCookie(javax.servlet.http.HttpServletRequest)</t>
+    <t>setCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>setCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String,java.lang.Integer,java.lang.String)</t>
+  </si>
+  <si>
+    <t>doSetCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String,java.lang.Integer,java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>setCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>getClass()</t>
@@ -94,15 +103,24 @@
     <t>wait()</t>
   </si>
   <si>
+    <t>getCookieValue(javax.servlet.http.HttpServletRequest,java.lang.String)</t>
+  </si>
+  <si>
+    <t>getCookieValue(javax.servlet.http.HttpServletRequest,java.lang.String,java.lang.Boolean)</t>
+  </si>
+  <si>
     <t>notify()</t>
   </si>
   <si>
-    <t>deleteCookie(javax.servlet.http.HttpServletRequest)</t>
+    <t>deleteCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
   </si>
   <si>
+    <t>doSetCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String,java.lang.Integer,java.lang.String)</t>
+  </si>
+  <si>
     <t>wait(java.lang.Long,java.lang.Integer)</t>
   </si>
   <si>
@@ -112,6 +130,9 @@
     <t>java.lang.Object</t>
   </si>
   <si>
+    <t>setCookie(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String,java.lang.Boolean)</t>
+  </si>
+  <si>
     <t>cn.blackshop.portal.web.PortalWebServiceApp</t>
   </si>
   <si>
@@ -139,7 +160,7 @@
     <t>cn.blackshop.portal.web.controller.IndexController</t>
   </si>
   <si>
-    <t>index(javax.servlet.http.HttpServletRequest)</t>
+    <t>index(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.ui.Model)</t>
   </si>
   <si>
     <t>源类名</t>
@@ -157,7 +178,7 @@
     <t>权重</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -329,7 +350,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -343,7 +364,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -357,7 +378,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -371,7 +392,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -385,13 +406,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -399,7 +420,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -413,13 +434,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -427,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -441,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -455,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -469,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -483,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -497,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -511,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -525,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -539,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -553,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -564,7 +585,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -578,7 +599,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -592,10 +613,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -606,7 +627,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -620,10 +641,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -634,10 +655,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -648,10 +669,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -662,38 +683,38 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -704,24 +725,24 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -748,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -772,13 +793,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -786,10 +807,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -805,7 +826,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -813,19 +834,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -833,16 +854,152 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -860,19 +1017,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -890,19 +1047,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -920,19 +1077,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -950,19 +1107,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -980,19 +1137,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
